--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H2">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I2">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J2">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.035148333333333</v>
+        <v>5.079146</v>
       </c>
       <c r="N2">
-        <v>21.105445</v>
+        <v>15.237438</v>
       </c>
       <c r="O2">
-        <v>0.6717277578060169</v>
+        <v>0.707738273396773</v>
       </c>
       <c r="P2">
-        <v>0.671727757806017</v>
+        <v>0.7077382733967729</v>
       </c>
       <c r="Q2">
-        <v>0.2115281499877778</v>
+        <v>0.04988398591466666</v>
       </c>
       <c r="R2">
-        <v>1.90375334989</v>
+        <v>0.448955873232</v>
       </c>
       <c r="S2">
-        <v>0.1396721772426139</v>
+        <v>0.04457193283123617</v>
       </c>
       <c r="T2">
-        <v>0.1396721772426139</v>
+        <v>0.04457193283123617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H3">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I3">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J3">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.495248999999999</v>
       </c>
       <c r="O3">
-        <v>0.1430713037109494</v>
+        <v>0.2087923026002514</v>
       </c>
       <c r="P3">
-        <v>0.1430713037109494</v>
+        <v>0.2087923026002514</v>
       </c>
       <c r="Q3">
-        <v>0.04505338336644444</v>
+        <v>0.01471644628177778</v>
       </c>
       <c r="R3">
-        <v>0.405480450298</v>
+        <v>0.132448016536</v>
       </c>
       <c r="S3">
-        <v>0.02974877881407774</v>
+        <v>0.01314931922857908</v>
       </c>
       <c r="T3">
-        <v>0.02974877881407774</v>
+        <v>0.01314931922857908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H4">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I4">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J4">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.939649</v>
+        <v>0.5990256666666667</v>
       </c>
       <c r="N4">
-        <v>5.818947000000001</v>
+        <v>1.797077</v>
       </c>
       <c r="O4">
-        <v>0.1852009384830336</v>
+        <v>0.08346942400297561</v>
       </c>
       <c r="P4">
-        <v>0.1852009384830336</v>
+        <v>0.08346942400297561</v>
       </c>
       <c r="Q4">
-        <v>0.05832007303266667</v>
+        <v>0.005883230747555555</v>
       </c>
       <c r="R4">
-        <v>0.524880657294</v>
+        <v>0.05294907672800001</v>
       </c>
       <c r="S4">
-        <v>0.03850878276906158</v>
+        <v>0.00525673642357458</v>
       </c>
       <c r="T4">
-        <v>0.03850878276906157</v>
+        <v>0.005256736423574581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.151954</v>
       </c>
       <c r="I5">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J5">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.035148333333333</v>
+        <v>5.079146</v>
       </c>
       <c r="N5">
-        <v>21.105445</v>
+        <v>15.237438</v>
       </c>
       <c r="O5">
-        <v>0.6717277578060169</v>
+        <v>0.707738273396773</v>
       </c>
       <c r="P5">
-        <v>0.671727757806017</v>
+        <v>0.7077382733967729</v>
       </c>
       <c r="Q5">
-        <v>0.3563396432811111</v>
+        <v>0.2572655170946667</v>
       </c>
       <c r="R5">
-        <v>3.20705678953</v>
+        <v>2.315389653852</v>
       </c>
       <c r="S5">
-        <v>0.2352913019747251</v>
+        <v>0.2298697896225109</v>
       </c>
       <c r="T5">
-        <v>0.2352913019747251</v>
+        <v>0.2298697896225109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.151954</v>
       </c>
       <c r="I6">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J6">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.495248999999999</v>
       </c>
       <c r="O6">
-        <v>0.1430713037109494</v>
+        <v>0.2087923026002514</v>
       </c>
       <c r="P6">
-        <v>0.1430713037109494</v>
+        <v>0.2087923026002514</v>
       </c>
       <c r="Q6">
         <v>0.07589678517177777</v>
@@ -818,10 +818,10 @@
         <v>0.6830710665459999</v>
       </c>
       <c r="S6">
-        <v>0.0501146974115249</v>
+        <v>0.06781467737101227</v>
       </c>
       <c r="T6">
-        <v>0.05011469741152489</v>
+        <v>0.06781467737101227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.151954</v>
       </c>
       <c r="I7">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J7">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.939649</v>
+        <v>0.5990256666666667</v>
       </c>
       <c r="N7">
-        <v>5.818947000000001</v>
+        <v>1.797077</v>
       </c>
       <c r="O7">
-        <v>0.1852009384830336</v>
+        <v>0.08346942400297561</v>
       </c>
       <c r="P7">
-        <v>0.1852009384830336</v>
+        <v>0.08346942400297561</v>
       </c>
       <c r="Q7">
-        <v>0.09824580804866667</v>
+        <v>0.03034144871755556</v>
       </c>
       <c r="R7">
-        <v>0.8842122724380002</v>
+        <v>0.273073038458</v>
       </c>
       <c r="S7">
-        <v>0.06487177198831492</v>
+        <v>0.0271104441524522</v>
       </c>
       <c r="T7">
-        <v>0.06487177198831491</v>
+        <v>0.02711044415245221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H8">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I8">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J8">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.035148333333333</v>
+        <v>5.079146</v>
       </c>
       <c r="N8">
-        <v>21.105445</v>
+        <v>15.237438</v>
       </c>
       <c r="O8">
-        <v>0.6717277578060169</v>
+        <v>0.707738273396773</v>
       </c>
       <c r="P8">
-        <v>0.671727757806017</v>
+        <v>0.7077382733967729</v>
       </c>
       <c r="Q8">
-        <v>0.4494381062255555</v>
+        <v>0.484936543496</v>
       </c>
       <c r="R8">
-        <v>4.04494295603</v>
+        <v>4.364428891464</v>
       </c>
       <c r="S8">
-        <v>0.2967642785886779</v>
+        <v>0.4332965509430259</v>
       </c>
       <c r="T8">
-        <v>0.2967642785886779</v>
+        <v>0.4332965509430259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H9">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I9">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J9">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.495248999999999</v>
       </c>
       <c r="O9">
-        <v>0.1430713037109494</v>
+        <v>0.2087923026002514</v>
       </c>
       <c r="P9">
-        <v>0.1430713037109494</v>
+        <v>0.2087923026002514</v>
       </c>
       <c r="Q9">
-        <v>0.09572582798288887</v>
+        <v>0.1430627978413333</v>
       </c>
       <c r="R9">
-        <v>0.8615324518459998</v>
+        <v>1.287565180572</v>
       </c>
       <c r="S9">
-        <v>0.06320782748534683</v>
+        <v>0.1278283060006601</v>
       </c>
       <c r="T9">
-        <v>0.06320782748534681</v>
+        <v>0.1278283060006601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H10">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I10">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J10">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.939649</v>
+        <v>0.5990256666666667</v>
       </c>
       <c r="N10">
-        <v>5.818947000000001</v>
+        <v>1.797077</v>
       </c>
       <c r="O10">
-        <v>0.1852009384830336</v>
+        <v>0.08346942400297561</v>
       </c>
       <c r="P10">
-        <v>0.1852009384830336</v>
+        <v>0.08346942400297561</v>
       </c>
       <c r="Q10">
-        <v>0.1239138298153333</v>
+        <v>0.05719257455066667</v>
       </c>
       <c r="R10">
-        <v>1.115224468338</v>
+        <v>0.514733170956</v>
       </c>
       <c r="S10">
-        <v>0.08182038372565716</v>
+        <v>0.05110224342694882</v>
       </c>
       <c r="T10">
-        <v>0.08182038372565713</v>
+        <v>0.05110224342694883</v>
       </c>
     </row>
   </sheetData>
